--- a/StructureDefinition-cbs-social-determinants-of-health.xlsx
+++ b/StructureDefinition-cbs-social-determinants-of-health.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -467,11 +467,11 @@
     <t>programSpecificTimeWindow</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://cbsig.chai.gatech.edu/StructureDefinition/cbs-program-specific-time-window}
+    <t xml:space="preserve">Extension {http://cbsig.chai.gatech.edu/StructureDefinition/us-cbs-program-specific-time-window}
 </t>
   </si>
   <si>
-    <t>Case Based Surveillance Program Specific Time Window</t>
+    <t>US Case Based Surveillance Program Specific Time Window</t>
   </si>
   <si>
     <t>Program specific time window.</t>
@@ -709,7 +709,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-patient)
+    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/us-cbs-patient)
 </t>
   </si>
   <si>

--- a/StructureDefinition-cbs-social-determinants-of-health.xlsx
+++ b/StructureDefinition-cbs-social-determinants-of-health.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
